--- a/Output/request2.xlsx
+++ b/Output/request2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>Asset Name</t>
   </si>
@@ -55,52 +55,184 @@
     <t>Complex Relations - Attribute</t>
   </si>
   <si>
-    <t>01. # Accounts</t>
+    <t>Accretion of discount</t>
   </si>
   <si>
     <t>CCAR Reporting Community</t>
   </si>
   <si>
-    <t>Financial Reporting</t>
-  </si>
-  <si>
-    <t>Data Point</t>
-  </si>
-  <si>
-    <t>Prioritized Attribute</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Consists of</t>
+    <t>Financial Reporting Data Assets</t>
+  </si>
+  <si>
+    <t>Data Element</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>is a part of</t>
-  </si>
-  <si>
-    <t>A.01 –   International Auto Loan</t>
+    <t>Testing.</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>Discounts</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>Output Variables</t>
+  </si>
+  <si>
+    <t>Amortized Cost (USD Equivalent)</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Data Type Precision</t>
+  </si>
+  <si>
+    <t>allowed value</t>
+  </si>
+  <si>
+    <t>Input Variables</t>
   </si>
   <si>
     <t>Calculation Rule</t>
   </si>
   <si>
+    <t>3. If "purchase price of a debt security" &amp;gt; = "face value"  accretion of discountelse   adjusted purchase price of a debt security</t>
+  </si>
+  <si>
+    <t>Descriptive Example</t>
+  </si>
+  <si>
+    <t>allowed value for</t>
+  </si>
+  <si>
+    <t>Adjusted purchase price</t>
+  </si>
+  <si>
+    <t>2. adjusted purchase price of a debt security =  discounts = 10% of purchase price of a debt security (rate variable by Fed)purchase price of a debt security - discounts</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>allowed value set</t>
+  </si>
+  <si>
+    <t>Face value</t>
+  </si>
+  <si>
+    <t>1. purchase price of a debt security = no: of securities * unit price</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>applies to</t>
+  </si>
+  <si>
+    <t>Purchase price</t>
+  </si>
+  <si>
+    <t>Total discounts</t>
+  </si>
+  <si>
+    <t>Field Mapping</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>represents</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>represented by</t>
+  </si>
+  <si>
+    <t>mapping specification</t>
+  </si>
+  <si>
+    <t>implemented in</t>
+  </si>
+  <si>
+    <t>implements</t>
+  </si>
+  <si>
+    <t>governed by</t>
+  </si>
+  <si>
+    <t>governs</t>
+  </si>
+  <si>
+    <t>is calculated using</t>
+  </si>
+  <si>
+    <t>is used for calculating</t>
+  </si>
+  <si>
     <t>is sourced from</t>
   </si>
   <si>
     <t>sources</t>
   </si>
   <si>
+    <t>Purchase price - Total Discounts</t>
+  </si>
+  <si>
+    <t>Data Type Information 2</t>
+  </si>
+  <si>
+    <t>Data Type Information 1.</t>
+  </si>
+  <si>
+    <t>01. Amortized Cost (USD Equivalent)</t>
+  </si>
+  <si>
+    <t>Description 1</t>
+  </si>
+  <si>
     <t>03. Amortized Cost (USD Equivalent)</t>
   </si>
   <si>
-    <t>Amortized Cost (USD Equivalent)</t>
-  </si>
-  <si>
-    <t>B.02 — Securities  2 (“Investment Securities with Designated Accounting Hedges”)</t>
+    <t>Description 2</t>
+  </si>
+  <si>
+    <t>Description 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If "purchase price of a debt security" &amp;gt; = "face value"   accretion of discount else       adjusted purchase price of a debt security</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Total number of units * Unit price</t>
+  </si>
+  <si>
+    <t>Total number of units</t>
+  </si>
+  <si>
+    <t>Unit price</t>
   </si>
 </sst>
 </file>
@@ -440,7 +572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -513,141 +645,1571 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="E3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s"/>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="E4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s"/>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s"/>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s"/>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s"/>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s"/>
       <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
         <v>27</v>
       </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s"/>
       <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s"/>
       <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H12" t="s"/>
     </row>
     <row r="13" spans="1:13">
       <c r="G13" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s"/>
     </row>
     <row r="14" spans="1:13">
       <c r="G14" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s"/>
     </row>
     <row r="15" spans="1:13">
       <c r="G15" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s"/>
     </row>
     <row r="16" spans="1:13">
       <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" t="s"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
         <v>21</v>
       </c>
-      <c r="H16" t="s"/>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s"/>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s"/>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s"/>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s"/>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="K25" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s"/>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" t="s"/>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="K27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="K28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" t="s"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" t="s"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="G31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" t="s"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" t="s"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" t="s"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" t="s"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" t="s"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" t="s"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="F39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="F41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="K41" t="s">
+        <v>40</v>
+      </c>
+      <c r="M41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="F42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="K42" t="s">
+        <v>44</v>
+      </c>
+      <c r="M42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" t="s"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s"/>
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="E45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" t="s"/>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" t="s"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="E46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" t="s"/>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" t="s"/>
+      <c r="G47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" t="s"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="G48" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" t="s"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="G49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" t="s"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="G50" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" t="s"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="G51" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" t="s"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="G52" t="s">
+        <v>55</v>
+      </c>
+      <c r="H52" t="s"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="G53" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" t="s"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="G54" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" t="s"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="G55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" t="s"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="G56" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" t="s"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s"/>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" t="s"/>
+      <c r="H59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59" t="s">
+        <v>13</v>
+      </c>
+      <c r="M59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" t="s"/>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>40</v>
+      </c>
+      <c r="K60" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="E61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" t="s"/>
+      <c r="G61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="K61" t="s">
+        <v>40</v>
+      </c>
+      <c r="M61" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="E62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" t="s"/>
+      <c r="G62" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="K62" t="s">
+        <v>44</v>
+      </c>
+      <c r="M62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="E63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" t="s"/>
+      <c r="G63" t="s">
+        <v>39</v>
+      </c>
+      <c r="H63" t="s"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="E64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" t="s"/>
+      <c r="G64" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" t="s"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="G67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H67" t="s"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="G68" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" t="s"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="G69" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" t="s"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="G70" t="s">
+        <v>53</v>
+      </c>
+      <c r="H70" t="s"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="G71" t="s">
+        <v>54</v>
+      </c>
+      <c r="H71" t="s"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="G72" t="s">
+        <v>55</v>
+      </c>
+      <c r="H72" t="s"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="G73" t="s">
+        <v>56</v>
+      </c>
+      <c r="H73" t="s"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="G74" t="s">
+        <v>57</v>
+      </c>
+      <c r="H74" t="s"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="G75" t="s">
+        <v>58</v>
+      </c>
+      <c r="H75" t="s"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="G76" t="s">
+        <v>59</v>
+      </c>
+      <c r="H76" t="s"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" t="s">
+        <v>70</v>
+      </c>
+      <c r="G78" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" t="s">
+        <v>22</v>
+      </c>
+      <c r="K78" t="s">
+        <v>23</v>
+      </c>
+      <c r="L78" t="s">
+        <v>24</v>
+      </c>
+      <c r="M78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" t="s"/>
+      <c r="G79" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="K79" t="s">
+        <v>36</v>
+      </c>
+      <c r="M79" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" t="s"/>
+      <c r="G80" t="s">
+        <v>39</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="K80" t="s">
+        <v>44</v>
+      </c>
+      <c r="L80" t="s">
+        <v>32</v>
+      </c>
+      <c r="M80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="E81" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" t="s"/>
+      <c r="G81" t="s">
+        <v>43</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="J81" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" t="s">
+        <v>13</v>
+      </c>
+      <c r="M81" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="E82" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" t="s"/>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="K82" t="s">
+        <v>36</v>
+      </c>
+      <c r="M82" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="E83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" t="s"/>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="K83" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="E84" t="s">
+        <v>42</v>
+      </c>
+      <c r="F84" t="s"/>
+      <c r="G84" t="s">
+        <v>48</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="K84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="G85" t="s">
+        <v>50</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="K85" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="G86" t="s">
+        <v>52</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="K86" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="G87" t="s">
+        <v>53</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="K87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="G88" t="s">
+        <v>54</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="K88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="G89" t="s">
+        <v>55</v>
+      </c>
+      <c r="H89" t="s"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="G90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H90" t="s"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="G91" t="s">
+        <v>57</v>
+      </c>
+      <c r="H91" t="s"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="G92" t="s">
+        <v>58</v>
+      </c>
+      <c r="H92" t="s"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="G93" t="s">
+        <v>59</v>
+      </c>
+      <c r="H93" t="s"/>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" t="s"/>
+      <c r="G95" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95" t="s">
+        <v>22</v>
+      </c>
+      <c r="K95" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="E96" t="s">
+        <v>26</v>
+      </c>
+      <c r="F96" t="s"/>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s">
+        <v>45</v>
+      </c>
+      <c r="K96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="E97" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" t="s"/>
+      <c r="G97" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="J97" t="s">
+        <v>31</v>
+      </c>
+      <c r="K97" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="E98" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" t="s"/>
+      <c r="G98" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="K98" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="E99" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" t="s"/>
+      <c r="G99" t="s">
+        <v>39</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="K99" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="E100" t="s">
+        <v>42</v>
+      </c>
+      <c r="F100" t="s"/>
+      <c r="G100" t="s">
+        <v>43</v>
+      </c>
+      <c r="H100" t="s"/>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="E101" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" t="s"/>
+      <c r="G101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" t="s"/>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="G102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" t="s"/>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="G103" t="s">
+        <v>48</v>
+      </c>
+      <c r="H103" t="s"/>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="G104" t="s">
+        <v>50</v>
+      </c>
+      <c r="H104" t="s"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="G105" t="s">
+        <v>52</v>
+      </c>
+      <c r="H105" t="s"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="G106" t="s">
+        <v>53</v>
+      </c>
+      <c r="H106" t="s"/>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="G107" t="s">
+        <v>54</v>
+      </c>
+      <c r="H107" t="s"/>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="G108" t="s">
+        <v>55</v>
+      </c>
+      <c r="H108" t="s"/>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="G109" t="s">
+        <v>56</v>
+      </c>
+      <c r="H109" t="s"/>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="G110" t="s">
+        <v>57</v>
+      </c>
+      <c r="H110" t="s"/>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="G111" t="s">
+        <v>58</v>
+      </c>
+      <c r="H111" t="s"/>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="G112" t="s">
+        <v>59</v>
+      </c>
+      <c r="H112" t="s"/>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" t="s">
+        <v>71</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" t="s"/>
+      <c r="G114" t="s">
+        <v>19</v>
+      </c>
+      <c r="H114" t="s">
+        <v>69</v>
+      </c>
+      <c r="I114" t="s">
+        <v>21</v>
+      </c>
+      <c r="J114" t="s">
+        <v>22</v>
+      </c>
+      <c r="K114" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="E115" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" t="s"/>
+      <c r="G115" t="s">
+        <v>27</v>
+      </c>
+      <c r="H115" t="s">
+        <v>71</v>
+      </c>
+      <c r="J115" t="s">
+        <v>31</v>
+      </c>
+      <c r="K115" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="E116" t="s">
+        <v>29</v>
+      </c>
+      <c r="F116" t="s"/>
+      <c r="G116" t="s">
+        <v>30</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="K116" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="E117" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" t="s"/>
+      <c r="G117" t="s">
+        <v>35</v>
+      </c>
+      <c r="H117" t="s"/>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="E118" t="s">
+        <v>38</v>
+      </c>
+      <c r="F118" t="s"/>
+      <c r="G118" t="s">
+        <v>39</v>
+      </c>
+      <c r="H118" t="s"/>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="E119" t="s">
+        <v>42</v>
+      </c>
+      <c r="F119" t="s"/>
+      <c r="G119" t="s">
+        <v>43</v>
+      </c>
+      <c r="H119" t="s"/>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="E120" t="s">
+        <v>32</v>
+      </c>
+      <c r="F120" t="s"/>
+      <c r="G120" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" t="s"/>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="G121" t="s">
+        <v>27</v>
+      </c>
+      <c r="H121" t="s"/>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="G122" t="s">
+        <v>48</v>
+      </c>
+      <c r="H122" t="s"/>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="G123" t="s">
+        <v>50</v>
+      </c>
+      <c r="H123" t="s"/>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="G124" t="s">
+        <v>52</v>
+      </c>
+      <c r="H124" t="s"/>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="G125" t="s">
+        <v>53</v>
+      </c>
+      <c r="H125" t="s"/>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="G126" t="s">
+        <v>54</v>
+      </c>
+      <c r="H126" t="s"/>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="G127" t="s">
+        <v>55</v>
+      </c>
+      <c r="H127" t="s"/>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="G128" t="s">
+        <v>56</v>
+      </c>
+      <c r="H128" t="s"/>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="G129" t="s">
+        <v>57</v>
+      </c>
+      <c r="H129" t="s"/>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="G130" t="s">
+        <v>58</v>
+      </c>
+      <c r="H130" t="s"/>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="G131" t="s">
+        <v>59</v>
+      </c>
+      <c r="H131" t="s"/>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" t="s">
+        <v>72</v>
+      </c>
+      <c r="B133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" t="s">
+        <v>17</v>
+      </c>
+      <c r="F133" t="s"/>
+      <c r="G133" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" t="s">
+        <v>69</v>
+      </c>
+      <c r="I133" t="s">
+        <v>21</v>
+      </c>
+      <c r="J133" t="s">
+        <v>22</v>
+      </c>
+      <c r="K133" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="E134" t="s">
+        <v>26</v>
+      </c>
+      <c r="F134" t="s"/>
+      <c r="G134" t="s">
+        <v>27</v>
+      </c>
+      <c r="H134" t="s">
+        <v>72</v>
+      </c>
+      <c r="J134" t="s">
+        <v>31</v>
+      </c>
+      <c r="K134" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="E135" t="s">
+        <v>29</v>
+      </c>
+      <c r="F135" t="s"/>
+      <c r="G135" t="s">
+        <v>30</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="K135" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="E136" t="s">
+        <v>34</v>
+      </c>
+      <c r="F136" t="s"/>
+      <c r="G136" t="s">
+        <v>35</v>
+      </c>
+      <c r="H136" t="s"/>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="E137" t="s">
+        <v>38</v>
+      </c>
+      <c r="F137" t="s"/>
+      <c r="G137" t="s">
+        <v>39</v>
+      </c>
+      <c r="H137" t="s"/>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="E138" t="s">
+        <v>42</v>
+      </c>
+      <c r="F138" t="s"/>
+      <c r="G138" t="s">
+        <v>43</v>
+      </c>
+      <c r="H138" t="s"/>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="E139" t="s">
+        <v>32</v>
+      </c>
+      <c r="F139" t="s"/>
+      <c r="G139" t="s">
+        <v>19</v>
+      </c>
+      <c r="H139" t="s"/>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="G140" t="s">
+        <v>27</v>
+      </c>
+      <c r="H140" t="s"/>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="G141" t="s">
+        <v>48</v>
+      </c>
+      <c r="H141" t="s"/>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="G142" t="s">
+        <v>50</v>
+      </c>
+      <c r="H142" t="s"/>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="G143" t="s">
+        <v>52</v>
+      </c>
+      <c r="H143" t="s"/>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="G144" t="s">
+        <v>53</v>
+      </c>
+      <c r="H144" t="s"/>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="G145" t="s">
+        <v>54</v>
+      </c>
+      <c r="H145" t="s"/>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="G146" t="s">
+        <v>55</v>
+      </c>
+      <c r="H146" t="s"/>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="G147" t="s">
+        <v>56</v>
+      </c>
+      <c r="H147" t="s"/>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="G148" t="s">
+        <v>57</v>
+      </c>
+      <c r="H148" t="s"/>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="G149" t="s">
+        <v>58</v>
+      </c>
+      <c r="H149" t="s"/>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="G150" t="s">
+        <v>59</v>
+      </c>
+      <c r="H150" t="s"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="D9:D16"/>
+  <mergeCells count="32">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="C2:C19"/>
+    <mergeCell ref="D2:D19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="B21:B36"/>
+    <mergeCell ref="C21:C36"/>
+    <mergeCell ref="D21:D36"/>
+    <mergeCell ref="A38:A56"/>
+    <mergeCell ref="B38:B56"/>
+    <mergeCell ref="C38:C56"/>
+    <mergeCell ref="D38:D56"/>
+    <mergeCell ref="A58:A76"/>
+    <mergeCell ref="B58:B76"/>
+    <mergeCell ref="C58:C76"/>
+    <mergeCell ref="D58:D76"/>
+    <mergeCell ref="A78:A93"/>
+    <mergeCell ref="B78:B93"/>
+    <mergeCell ref="C78:C93"/>
+    <mergeCell ref="D78:D93"/>
+    <mergeCell ref="A95:A112"/>
+    <mergeCell ref="B95:B112"/>
+    <mergeCell ref="C95:C112"/>
+    <mergeCell ref="D95:D112"/>
+    <mergeCell ref="A114:A131"/>
+    <mergeCell ref="B114:B131"/>
+    <mergeCell ref="C114:C131"/>
+    <mergeCell ref="D114:D131"/>
+    <mergeCell ref="A133:A150"/>
+    <mergeCell ref="B133:B150"/>
+    <mergeCell ref="C133:C150"/>
+    <mergeCell ref="D133:D150"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
